--- a/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{145A1AA9-949F-D24B-B076-2118A7184DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56047C61-5665-7F4D-868A-CFF5A5995CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5925,8 +5925,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AH19" sqref="AH19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -14710,7 +14710,7 @@
         <v>725</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G16" s="68" t="s">
         <v>79</v>

--- a/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56047C61-5665-7F4D-868A-CFF5A5995CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB25B83-2C9F-334E-B988-AF757E7EC7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5588,7 +5588,7 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5598,57 +5598,57 @@
     <col min="3" max="16384" width="10.83203125" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="91" t="s">
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="91" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5"/>
     </row>
-    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="164" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="93" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="92" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="92" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="148" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="95" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="28" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A15" s="96" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="168" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="168" x14ac:dyDescent="0.15">
       <c r="A16" s="96" t="s">
         <v>602</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="A74" s="94"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Y2W5z/o3EQJwGgHsnPBOnoM1WkfUBSxzCRSc9r9DtU7jN3FYLdHWg/VpFRvIo4sPJhcLVYBfpRtY3GbdJ0Ln1Q==" saltValue="L+RSgvBGi3JvnrVNU3PelQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HH1PugX67brJCDBMpaRlUTYJUaPjbJ67Fetkvc30gZYlKuQzhzkw9xdkJp6cD0fjBKalnUVSOkZNT625CffBPw==" saltValue="6v/sV1QMsi1vJgblMj4cAw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -5925,8 +5925,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>

--- a/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FB25B83-2C9F-334E-B988-AF757E7EC7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56533A5E-CEBF-F940-810B-D08298163E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15820" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="852">
   <si>
     <t>https://clinical.scilifelab.se/</t>
   </si>
@@ -3688,6 +3688,9 @@
   </si>
   <si>
     <t>comment</t>
+  </si>
+  <si>
+    <t>UDF/Sample Buffer</t>
   </si>
 </sst>
 </file>
@@ -4460,7 +4463,7 @@
     <xf numFmtId="0" fontId="55" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="16" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4929,6 +4932,9 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="26">
@@ -5925,8 +5931,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="X1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -12312,9 +12318,7 @@
       <c r="P10" s="32"/>
       <c r="Q10" s="100"/>
       <c r="R10" s="34"/>
-      <c r="S10" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S10"/>
       <c r="U10" s="102"/>
       <c r="V10" s="32"/>
       <c r="W10" s="37"/>
@@ -13375,8 +13379,8 @@
         <v>28</v>
       </c>
       <c r="R11" s="46"/>
-      <c r="S11" s="108" t="s">
-        <v>713</v>
+      <c r="S11" s="176" t="s">
+        <v>851</v>
       </c>
       <c r="T11"/>
       <c r="U11" s="38" t="s">
@@ -13447,9 +13451,7 @@
       <c r="P12" s="47"/>
       <c r="Q12" s="101"/>
       <c r="R12" s="74"/>
-      <c r="S12" s="108" t="s">
-        <v>713</v>
-      </c>
+      <c r="S12"/>
       <c r="T12"/>
       <c r="U12" s="103"/>
       <c r="V12" s="47"/>
@@ -72354,7 +72356,7 @@
       <c r="AL395" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jwGORLOaFqDkhRWjhEEWIRxpYDG5S952p8rqPPqkNWXUwBwa3tMhgfIJDj8Lu1bgIlIbfZaTf6cX/btXLsOVUQ==" saltValue="1qoAJ52cH2SXgchVkgIfYA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="rC42HdVf/Y+1agUX2T80MJecVC71oP0F3gOzboH4UcsAoHy73Qj77yESDkgDBhQjqjZ6qROGhczPBQOnTeAmgA==" saltValue="Qq8aUUfVQxQ+3GYj5ooi8w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="5">
     <mergeCell ref="A9:N9"/>
     <mergeCell ref="AB9:AD9"/>
@@ -72362,7 +72364,7 @@
     <mergeCell ref="U9:X9"/>
     <mergeCell ref="AH9:AL9"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O15:O394" xr:uid="{19465EDB-9F0A-D648-800B-EA415E10A078}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
@@ -72380,7 +72382,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="22">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="22">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-00000A000000}">
           <x14:formula1>
             <xm:f>'Drop-down lists'!$M$2:$M$97</xm:f>

--- a/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
+++ b/tests/fixtures/orderforms/1508.33.balsamic_umi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isakohlsson/dev/cg/tests/fixtures/orderforms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdiazboada/Documents/Clinical_Genomics/repos/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93E8809-B17C-9F42-B6D5-348840085973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB073907-6D15-674A-95BB-0BEE665DB058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-13500" windowWidth="25560" windowHeight="28320" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -5929,8 +5929,8 @@
   </sheetPr>
   <dimension ref="A1:AMO395"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -13631,7 +13631,7 @@
         <v>724</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>78</v>
+        <v>606</v>
       </c>
       <c r="G15" s="68" t="s">
         <v>68</v>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="R15" s="74"/>
       <c r="S15" s="73" t="s">
-        <v>719</v>
+        <v>74</v>
       </c>
       <c r="U15" s="88"/>
       <c r="V15" s="102"/>
@@ -15773,7 +15773,7 @@
         <v>730</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G17" s="68" t="s">
         <v>68</v>
@@ -16832,7 +16832,7 @@
         <v>733</v>
       </c>
       <c r="F18" s="67" t="s">
-        <v>89</v>
+        <v>606</v>
       </c>
       <c r="G18" s="68" t="s">
         <v>79</v>
@@ -17891,7 +17891,7 @@
         <v>736</v>
       </c>
       <c r="F19" s="67" t="s">
-        <v>453</v>
+        <v>607</v>
       </c>
       <c r="G19" s="68" t="s">
         <v>79</v>
@@ -18950,7 +18950,7 @@
         <v>739</v>
       </c>
       <c r="F20" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G20" s="68" t="s">
         <v>79</v>
@@ -20009,7 +20009,7 @@
         <v>742</v>
       </c>
       <c r="F21" s="67" t="s">
-        <v>470</v>
+        <v>607</v>
       </c>
       <c r="G21" s="68" t="s">
         <v>79</v>
@@ -21068,7 +21068,7 @@
         <v>745</v>
       </c>
       <c r="F22" s="67" t="s">
-        <v>454</v>
+        <v>608</v>
       </c>
       <c r="G22" s="68" t="s">
         <v>79</v>
@@ -22127,7 +22127,7 @@
         <v>748</v>
       </c>
       <c r="F23" s="67" t="s">
-        <v>455</v>
+        <v>607</v>
       </c>
       <c r="G23" s="68" t="s">
         <v>79</v>
@@ -23186,7 +23186,7 @@
         <v>751</v>
       </c>
       <c r="F24" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G24" s="68" t="s">
         <v>79</v>
@@ -24245,7 +24245,7 @@
         <v>754</v>
       </c>
       <c r="F25" s="67" t="s">
-        <v>471</v>
+        <v>607</v>
       </c>
       <c r="G25" s="68" t="s">
         <v>79</v>
@@ -25304,7 +25304,7 @@
         <v>757</v>
       </c>
       <c r="F26" s="67" t="s">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="G26" s="68" t="s">
         <v>79</v>
